--- a/Assets/questdata.xlsx
+++ b/Assets/questdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yee-t\Documents\GitHub\EnjoyGame\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leewo\Documents\NTU\Year 3\CZ3003\EnjoyGame\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7411EB39-E418-4A44-887B-FA72E30A8906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59799618-818D-404C-9CC9-6F074209E032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questdata" sheetId="1" r:id="rId1"/>
@@ -37,57 +37,30 @@
     <t>5*x^2+15*x+1=0</t>
   </si>
   <si>
-    <t>x=\frac{-15+\sqrt{205}}{10},\:x=\frac{-15-\sqrt{205}}{10}</t>
-  </si>
-  <si>
     <t>2*a^2+3*a-2=0</t>
   </si>
   <si>
-    <t>x=\frac{1}{2},\:x=-2</t>
-  </si>
-  <si>
     <t>176-3*x-35*x^2=0</t>
   </si>
   <si>
-    <t>x=-\frac{16}{7},\:x=\frac{11}{5}</t>
-  </si>
-  <si>
     <t>x^2-7*x+15=0</t>
   </si>
   <si>
-    <t>x=\frac{7}{2}+i\frac{\sqrt{11}}{2},\:x=\frac{7}{2}-i\frac{\sqrt{11}}{2}</t>
-  </si>
-  <si>
     <t>3*x^2-2x-4=0</t>
   </si>
   <si>
-    <t>x=\frac{1+\sqrt{13}}{3},\:x=\frac{1-\sqrt{13}}{3}</t>
-  </si>
-  <si>
     <t>2*x^2+7*x+1=0</t>
   </si>
   <si>
-    <t>x=\frac{-7+\sqrt{41}}{4},\:x=\frac{-7-\sqrt{41}}{4}</t>
-  </si>
-  <si>
     <t>5*x^2+5*x+2=0</t>
   </si>
   <si>
-    <t>x=-\frac{1}{2}+i\frac{\sqrt{15}}{10},\:x=-\frac{1}{2}-i\frac{\sqrt{15}}{10}</t>
-  </si>
-  <si>
     <t>(3*x+2)*(4*x-3)-10*x*(x+1)=0</t>
   </si>
   <si>
-    <t>x=6,\:x=-\frac{1}{2}</t>
-  </si>
-  <si>
     <t>(2*x-3)*(3*x+1)-2*x^2+22*x=0</t>
   </si>
   <si>
-    <t>x=\frac{-15+\sqrt{273}}{8},\:x=\frac{-15-\sqrt{273}}{8}</t>
-  </si>
-  <si>
     <t>(3^4)*(3^2)</t>
   </si>
   <si>
@@ -148,42 +121,12 @@
     <t>15x^7</t>
   </si>
   <si>
-    <t>If 15&gt;10 and 10 &gt;p, then 15 ??/ p.</t>
-  </si>
-  <si>
     <t>&gt;</t>
   </si>
   <si>
-    <t>If -3&gt;x and x&gt;y, then -3 ??/ y.</t>
-  </si>
-  <si>
-    <t>If a&lt;60 and 60 &lt;b, then a ??/ b.</t>
-  </si>
-  <si>
     <t>&lt;</t>
   </si>
   <si>
-    <t>If x+1=y, then x ??/ y.</t>
-  </si>
-  <si>
-    <t>If m-2=n, then m ??/ n.</t>
-  </si>
-  <si>
-    <t>If x&gt;y, then 4*x ??/ 4*y.</t>
-  </si>
-  <si>
-    <t>If x&gt;y, then x/100 ??/ y/100.</t>
-  </si>
-  <si>
-    <t>If x&gt;y, then (-2)*x ??/ (-2)*y.</t>
-  </si>
-  <si>
-    <t>If x&gt;y, then x/(-2) ??/ y/(-2).</t>
-  </si>
-  <si>
-    <t>If p&lt;q and q&lt;0, then p ??/ 0.</t>
-  </si>
-  <si>
     <t>If the gradient of the line joining the points (-3,-7) and (4,b) is equal to 3/5, find b.</t>
   </si>
   <si>
@@ -215,12 +158,69 @@
   </si>
   <si>
     <t>Show that the points A(3,4), B(3,1) and C(8,4) are the vertices of a right-angled triangles. Find the length of the perpendicular from A to BC.</t>
+  </si>
+  <si>
+    <t>x=(-15+sqrt(205))/10 and x=(-15-sqrt(205))/10</t>
+  </si>
+  <si>
+    <t>x=1/2 and x=-2</t>
+  </si>
+  <si>
+    <t>x=16/7 and x=11/5</t>
+  </si>
+  <si>
+    <t>x=7/2+i*sqrt(11)/2 and x=7/2-i*sqrt(11)/2</t>
+  </si>
+  <si>
+    <t>x=(1+sqrt(13))/3 and x=(1-sqrt(13))/3</t>
+  </si>
+  <si>
+    <t>x=(-7+sqrt(41))/4 and x=(-7-sqrt(41))/4</t>
+  </si>
+  <si>
+    <t>x=-1/2+i*sqrt(15)/10 and x=1/2-i*sqrt(15)/10</t>
+  </si>
+  <si>
+    <t>x=6 and x=-1/2</t>
+  </si>
+  <si>
+    <t>x=(-15+sqrt(273))/8 and x=(-15-sqrt(273))/8</t>
+  </si>
+  <si>
+    <t>If 15&gt;10 and 10 &gt;p, then 15 ?? p.</t>
+  </si>
+  <si>
+    <t>If -3&gt;x and x&gt;y, then -3 ?? y.</t>
+  </si>
+  <si>
+    <t>If a&lt;60 and 60 &lt;b, then a ?? b.</t>
+  </si>
+  <si>
+    <t>If x+1=y, then x ?? y.</t>
+  </si>
+  <si>
+    <t>If m-2=n, then m ?? n.</t>
+  </si>
+  <si>
+    <t>If x&gt;y, then 4*x ?? 4*y.</t>
+  </si>
+  <si>
+    <t>If x&gt;y, then x/100 ?? y/100.</t>
+  </si>
+  <si>
+    <t>If x&gt;y, then (-2)*x ?? (-2)*y.</t>
+  </si>
+  <si>
+    <t>If x&gt;y, then x/(-2) ?? y/(-2).</t>
+  </si>
+  <si>
+    <t>If p&lt;q and q&lt;0, then p ?? 0.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1054,14 +1054,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="4" max="4" width="60.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>51001</v>
       </c>
@@ -1086,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>51002</v>
       </c>
@@ -1097,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>51003</v>
       </c>
@@ -1111,13 +1117,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>51004</v>
       </c>
@@ -1125,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>51005</v>
       </c>
@@ -1139,13 +1145,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>51006</v>
       </c>
@@ -1153,13 +1159,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>51007</v>
       </c>
@@ -1167,13 +1173,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>51008</v>
       </c>
@@ -1181,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>51009</v>
       </c>
@@ -1195,13 +1201,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>52001</v>
       </c>
@@ -1209,13 +1215,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>52002</v>
       </c>
@@ -1223,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>52003</v>
       </c>
@@ -1237,13 +1243,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>52004</v>
       </c>
@@ -1251,13 +1257,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>52005</v>
       </c>
@@ -1265,13 +1271,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>52006</v>
       </c>
@@ -1279,13 +1285,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>52007</v>
       </c>
@@ -1293,13 +1299,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>52008</v>
       </c>
@@ -1307,13 +1313,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>52009</v>
       </c>
@@ -1321,13 +1327,13 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>52010</v>
       </c>
@@ -1335,13 +1341,13 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>53001</v>
       </c>
@@ -1349,13 +1355,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>53002</v>
       </c>
@@ -1363,13 +1369,13 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>53003</v>
       </c>
@@ -1377,13 +1383,13 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>53004</v>
       </c>
@@ -1391,13 +1397,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>53005</v>
       </c>
@@ -1405,13 +1411,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>53006</v>
       </c>
@@ -1419,13 +1425,13 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>53007</v>
       </c>
@@ -1433,13 +1439,13 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>53008</v>
       </c>
@@ -1447,13 +1453,13 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>53009</v>
       </c>
@@ -1461,13 +1467,13 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>53010</v>
       </c>
@@ -1475,13 +1481,13 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>54001</v>
       </c>
@@ -1489,13 +1495,13 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>54002</v>
       </c>
@@ -1503,13 +1509,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>54003</v>
       </c>
@@ -1517,13 +1523,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>54004</v>
       </c>
@@ -1531,13 +1537,13 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>54005</v>
       </c>
@@ -1545,13 +1551,13 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>54006</v>
       </c>
@@ -1559,13 +1565,13 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>54007</v>
       </c>
@@ -1573,13 +1579,13 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>54008</v>
       </c>
@@ -1587,13 +1593,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>54009</v>
       </c>
@@ -1601,13 +1607,13 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>54010</v>
       </c>
@@ -1615,13 +1621,14 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>